--- a/output/missing-values-smoke_current.xlsx
+++ b/output/missing-values-smoke_current.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
   <si>
     <t xml:space="preserve">pid</t>
   </si>
@@ -26,18 +26,60 @@
     <t xml:space="preserve">TSH0016</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0019</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0043</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0073</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0080</t>
   </si>
   <si>
     <t xml:space="preserve">TSH0127</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0824</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0857</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0942</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1008</t>
   </si>
   <si>
@@ -365,6 +407,9 @@
     <t xml:space="preserve">TSH1322</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1339</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1358</t>
   </si>
   <si>
@@ -464,6 +509,9 @@
     <t xml:space="preserve">TSH1656</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1701</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1777</t>
   </si>
   <si>
@@ -491,12 +539,6 @@
     <t xml:space="preserve">TSH1812</t>
   </si>
   <si>
-    <t xml:space="preserve">TSH1820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSH1822</t>
-  </si>
-  <si>
     <t xml:space="preserve">TSH1838</t>
   </si>
   <si>
@@ -566,7 +608,79 @@
     <t xml:space="preserve">TSH1928</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1936</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1965</t>
   </si>
 </sst>
 </file>
@@ -1736,91 +1850,91 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140"/>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141"/>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142"/>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143"/>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144"/>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145"/>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146"/>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147"/>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148"/>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149"/>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150"/>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151"/>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152"/>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153"/>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154"/>
     </row>
@@ -2015,6 +2129,234 @@
         <v>184</v>
       </c>
       <c r="B186"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>185</v>
+      </c>
+      <c r="B187"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>186</v>
+      </c>
+      <c r="B188"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>187</v>
+      </c>
+      <c r="B189"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>188</v>
+      </c>
+      <c r="B190"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>189</v>
+      </c>
+      <c r="B191"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>190</v>
+      </c>
+      <c r="B192"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>191</v>
+      </c>
+      <c r="B193"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>192</v>
+      </c>
+      <c r="B194"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>193</v>
+      </c>
+      <c r="B195"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>194</v>
+      </c>
+      <c r="B196"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>195</v>
+      </c>
+      <c r="B197"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>196</v>
+      </c>
+      <c r="B198"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>197</v>
+      </c>
+      <c r="B199"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>198</v>
+      </c>
+      <c r="B200"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>199</v>
+      </c>
+      <c r="B201"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>200</v>
+      </c>
+      <c r="B202"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>201</v>
+      </c>
+      <c r="B203"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>202</v>
+      </c>
+      <c r="B204"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>203</v>
+      </c>
+      <c r="B205"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>204</v>
+      </c>
+      <c r="B206"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>205</v>
+      </c>
+      <c r="B207"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>206</v>
+      </c>
+      <c r="B208"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>207</v>
+      </c>
+      <c r="B209"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>208</v>
+      </c>
+      <c r="B210"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>209</v>
+      </c>
+      <c r="B211"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>210</v>
+      </c>
+      <c r="B212"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>211</v>
+      </c>
+      <c r="B213"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>212</v>
+      </c>
+      <c r="B214"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>213</v>
+      </c>
+      <c r="B215"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>214</v>
+      </c>
+      <c r="B216"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>215</v>
+      </c>
+      <c r="B217"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>216</v>
+      </c>
+      <c r="B218"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>217</v>
+      </c>
+      <c r="B219"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>218</v>
+      </c>
+      <c r="B220"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>219</v>
+      </c>
+      <c r="B221"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>220</v>
+      </c>
+      <c r="B222"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>221</v>
+      </c>
+      <c r="B223"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>222</v>
+      </c>
+      <c r="B224"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
